--- a/medicine/Psychotrope/Côtes-du-tarn/Côtes-du-tarn.xlsx
+++ b/medicine/Psychotrope/Côtes-du-tarn/Côtes-du-tarn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-tarn</t>
+          <t>Côtes-du-tarn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le côtes-du-tarn, appelé vin de pays des côtes du Tarn jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone du sud-ouest, produit dans le département du Tarn.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-tarn</t>
+          <t>Côtes-du-tarn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de ce vignoble possède de nombreux points communs avec celui du vignoble de Gaillac : implantation dès l'époque gallo-romaine, transport du vin par gabarres sur le Tarn vers Bordeaux, etc.
 La différence se fait sur une aire élargie par rapport à l'AOC. Elle reprend une partie de l'ancien vignoble du Tarn indépendant de celui de l'abbaye Saint-Michel de Gaillac grandement amoindri par le gel de 1956.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-tarn</t>
+          <t>Côtes-du-tarn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'IGP
-L'IGP est présente sur le département du Tarn. 116 communes sont concernées : Albi, Alos, Amarens, Ambres, Andillac, Arthès, Aussac, Beauvais-sur-Tescou, Bellegarde, Bernac, Bournazel, Brens, Briatexte, Broze, Busque, Cabanès, Les Cabannes, Cadalen, Cagnac-les-Mines, Cahuzac-sur-Vère, Cambon, Campagnac, Carlus, Castanet, Castelnau-de-Lévis, Castelnau-de-Montmiral, Cestayrols, Combefa, Cordes-sur-Ciel, Coufouleux, Cunac, Donnazac, Fayssac, Fénols, Fiac, Florentin, Frausseilles, Fréjairolles, Gaillac, Le Garric, Garrigues, Giroussens, Graulhet, Grazac, Itzac, Labastide-de-Lévis, Labastide-Gabausse, Labastide-Saint-Georges, Labessière-Candeil, Lagrave, Larroque, Lasgraisses, Lavaur, Lescure-d'Albigeois, Lisle-sur-Tarn, Livers-Cazelles, Loubers, Loupiac, Lugan, Mailhoc, Marsal, Marssac-sur-Tarn, Mézens, Milhavet, Missècle, Montans, Montdurausse, Montels, Montgaillard, Montvalen, Mouzieys-Teulet, Mouzieys-Panens, Noailles, Orban, Parisot, Peyrole, Poulan-Pouzols, Puybegon, Puycelsi, Puygouzon, Rabastens, Rivières, Roquemaure, Rouffiac, Saint-Agnan, Saint-Beauzile, Sainte-Cécile-du-Cayrou, Saint-Gauzens, Saint-Grégoire, Saint-Jean-de-Rives, Saint-Juéry, Saint-Lieux-lès-Lavaur, Saint-Marcel-Campes, Saint-Paul-Cap-de-Joux, Saint-Sulpice-la-Pointe, Saint-Urcisse, Saliès, Salvagnac, Saussenac, La Sauzière-Saint-Jean, Senouillac, Le Sequestre, Soual, Taïx, Tauriac, Técou, Terssac, Teyssode, Tonnac, Le Verdier, Vieux, Villeneuve-sur-Vère, Vindrac-Alayrac, Virac, Viterbe et Sainte-Croix.
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IGP est présente sur le département du Tarn. 116 communes sont concernées : Albi, Alos, Amarens, Ambres, Andillac, Arthès, Aussac, Beauvais-sur-Tescou, Bellegarde, Bernac, Bournazel, Brens, Briatexte, Broze, Busque, Cabanès, Les Cabannes, Cadalen, Cagnac-les-Mines, Cahuzac-sur-Vère, Cambon, Campagnac, Carlus, Castanet, Castelnau-de-Lévis, Castelnau-de-Montmiral, Cestayrols, Combefa, Cordes-sur-Ciel, Coufouleux, Cunac, Donnazac, Fayssac, Fénols, Fiac, Florentin, Frausseilles, Fréjairolles, Gaillac, Le Garric, Garrigues, Giroussens, Graulhet, Grazac, Itzac, Labastide-de-Lévis, Labastide-Gabausse, Labastide-Saint-Georges, Labessière-Candeil, Lagrave, Larroque, Lasgraisses, Lavaur, Lescure-d'Albigeois, Lisle-sur-Tarn, Livers-Cazelles, Loubers, Loupiac, Lugan, Mailhoc, Marsal, Marssac-sur-Tarn, Mézens, Milhavet, Missècle, Montans, Montdurausse, Montels, Montgaillard, Montvalen, Mouzieys-Teulet, Mouzieys-Panens, Noailles, Orban, Parisot, Peyrole, Poulan-Pouzols, Puybegon, Puycelsi, Puygouzon, Rabastens, Rivières, Roquemaure, Rouffiac, Saint-Agnan, Saint-Beauzile, Sainte-Cécile-du-Cayrou, Saint-Gauzens, Saint-Grégoire, Saint-Jean-de-Rives, Saint-Juéry, Saint-Lieux-lès-Lavaur, Saint-Marcel-Campes, Saint-Paul-Cap-de-Joux, Saint-Sulpice-la-Pointe, Saint-Urcisse, Saliès, Salvagnac, Saussenac, La Sauzière-Saint-Jean, Senouillac, Le Sequestre, Soual, Taïx, Tauriac, Técou, Terssac, Teyssode, Tonnac, Le Verdier, Vieux, Villeneuve-sur-Vère, Vindrac-Alayrac, Virac, Viterbe et Sainte-Croix.
 </t>
         </is>
       </c>
@@ -558,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-tarn</t>
+          <t>Côtes-du-tarn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,17 +597,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Encépagement
-Les cépages rouges sont :
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les cépages rouges sont :
 Cépages de l'AOC Gaillac : cabernet franc N, cabernet sauvignon N, duras N, fer servadou N, gamay N, merlot N, syrah N ;
 Cépages anciens : carignan N, cinsaut N, gamay de chaudenay N, gamay de Bouze N, jurançon N, mérille N, portugais bleu N, prunelard N ;
 Nouveaux cépages : marselan N.
 Les cépages blancs sont :
 Cépages de l'AOC Gaillac : Len de l'el B, Mauzac blanc B, mauzac rose Rs, muscadelle B, Ondenc B, sauvignon B, sémillon B ;
 Cépages anciens : ugni blanc ;
-Nouveaux cépages : chardonnay B, chasan B, colombard B.
-Types de vin
-Il existe 21 labellisations différentes :
+Nouveaux cépages : chardonnay B, chasan B, colombard B.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-du-tarn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-tarn</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe 21 labellisations différentes :
 Côtes du Tarn blanc
 Côtes du Tarn Blanc Surmûri
 Côtes du Tarn Cabanes blanc
@@ -613,44 +671,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-du-tarn</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-tarn</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Caractères des vins</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vins rouges de soif, fruités de structure légère. Ces vins ont muté depuis une trentaine d'années; les vins cépages anciens ont peu à peu été remplacés par des cépages connus pour leur qualité destinés à l'élaboration de vin de cépage.
-Vins de caractère qui ne sont pas agréés en AOC. (vignes hors zone AOC, cépages non inscrits en AOC : chardonnay B, prunelard N) Ce sont des vins de niche de grande qualité parfois de culture un peu expérimentale. (le prunelard, cépage important au XIXe siècle avait disparu. Il est à nouveau cultivé par quelques vignerons désireux de l'essayer. Il donne généralement des vins puissants et complexes)</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-du-tarn</t>
+          <t>Côtes-du-tarn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,10 +692,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Caractères des vins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vins rouges de soif, fruités de structure légère. Ces vins ont muté depuis une trentaine d'années; les vins cépages anciens ont peu à peu été remplacés par des cépages connus pour leur qualité destinés à l'élaboration de vin de cépage.
+Vins de caractère qui ne sont pas agréés en AOC. (vignes hors zone AOC, cépages non inscrits en AOC : chardonnay B, prunelard N) Ce sont des vins de niche de grande qualité parfois de culture un peu expérimentale. (le prunelard, cépage important au XIXe siècle avait disparu. Il est à nouveau cultivé par quelques vignerons désireux de l'essayer. Il donne généralement des vins puissants et complexes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-du-tarn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-du-tarn</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vin et gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
